--- a/status/excel/fromBox/SASS_excel.xlsx
+++ b/status/excel/fromBox/SASS_excel.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_496D9C4FC362B02FE265D8D755245E3FB48F8C12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914410D4-9C4D-4DA3-90E4-0ABF3B7A555D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selenawallace/Downloads/Status Sheets-selected (6)/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B033E39E-D280-DE4D-97D4-CFCFBDAE8A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +84,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +99,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,12 +143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,16 +457,15 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,10 +475,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -480,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -490,14 +507,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -507,14 +524,15 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>45109</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>45366</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>